--- a/personal_tool/work_tool/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work_tool/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E31098D-69FC-4B11-8089-0EF83361481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA9366E-535C-45DF-80B6-A9C52992725C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="703">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4233,6 +4233,10 @@
   <si>
     <t>薪酬分发场景优化提交影像异常处理。
 整理公共组件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现基于财务共享4.0的影像系统接口公共组件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4828,12 +4832,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4843,10 +4841,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4875,6 +4873,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5159,7 +5163,7 @@
   <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="C485" sqref="C485"/>
+      <selection activeCell="C486" sqref="C486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5209,19 +5213,19 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -5283,19 +5287,19 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
@@ -5354,18 +5358,18 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
@@ -5423,18 +5427,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
@@ -5492,18 +5496,18 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
@@ -5561,18 +5565,18 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="34"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
@@ -5630,18 +5634,18 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="37"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
@@ -5699,18 +5703,18 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="35"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="34"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
@@ -5768,18 +5772,18 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="35"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="37"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="34"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
@@ -5826,18 +5830,18 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="35"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="37"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="34"/>
+      <c r="D69" s="37"/>
     </row>
     <row r="70" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
@@ -5895,18 +5899,18 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="35"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="34"/>
+      <c r="D76" s="37"/>
     </row>
     <row r="77" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
@@ -5961,18 +5965,18 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="35"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="37"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="34"/>
+      <c r="D83" s="37"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="16">
@@ -6046,18 +6050,18 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="35"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="37"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="35"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="34"/>
+      <c r="D92" s="37"/>
     </row>
     <row r="93" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B93" s="16">
@@ -6115,18 +6119,18 @@
       </c>
     </row>
     <row r="98" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="35"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="37"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="35"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C99" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="34"/>
+      <c r="D99" s="37"/>
     </row>
     <row r="100" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B100" s="16">
@@ -6184,18 +6188,18 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="35"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="37"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="35"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="C106" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="34"/>
+      <c r="D106" s="37"/>
     </row>
     <row r="107" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B107" s="16">
@@ -6253,18 +6257,18 @@
       </c>
     </row>
     <row r="112" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="35"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="37"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="35"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="33" t="s">
+      <c r="C113" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="34"/>
+      <c r="D113" s="37"/>
     </row>
     <row r="114" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B114" s="16">
@@ -6322,18 +6326,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="35"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="37"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="35"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C120" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="34"/>
+      <c r="D120" s="37"/>
     </row>
     <row r="121" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B121" s="16">
@@ -6391,18 +6395,18 @@
       </c>
     </row>
     <row r="126" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="35"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="37"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="35"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="33" t="s">
+      <c r="C127" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="34"/>
+      <c r="D127" s="37"/>
     </row>
     <row r="128" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B128" s="16">
@@ -6460,18 +6464,18 @@
       </c>
     </row>
     <row r="133" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="37"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="35"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="33" t="s">
+      <c r="C134" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D134" s="34"/>
+      <c r="D134" s="37"/>
     </row>
     <row r="135" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B135" s="16">
@@ -6529,16 +6533,16 @@
       </c>
     </row>
     <row r="140" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="35"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="37"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="35"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="33"/>
-      <c r="D141" s="34"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="37"/>
     </row>
     <row r="142" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B142" s="16">
@@ -6596,16 +6600,16 @@
       </c>
     </row>
     <row r="147" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="35"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="37"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="35"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="33"/>
-      <c r="D148" s="34"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="37"/>
     </row>
     <row r="149" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B149" s="16">
@@ -6663,16 +6667,16 @@
       </c>
     </row>
     <row r="154" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="35"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="37"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="35"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="33"/>
-      <c r="D155" s="34"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="37"/>
     </row>
     <row r="156" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B156" s="16">
@@ -6730,16 +6734,16 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="35"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="37"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="35"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="33"/>
-      <c r="D162" s="34"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="37"/>
     </row>
     <row r="163" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B163" s="16">
@@ -6797,16 +6801,16 @@
       </c>
     </row>
     <row r="168" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="35"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="37"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="35"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="33"/>
-      <c r="D169" s="34"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="37"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="16">
@@ -6853,16 +6857,16 @@
       </c>
     </row>
     <row r="174" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="35"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="37"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="34"/>
+      <c r="D174" s="35"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="33"/>
-      <c r="D175" s="34"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="37"/>
     </row>
     <row r="176" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B176" s="16">
@@ -6920,16 +6924,16 @@
       </c>
     </row>
     <row r="181" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="35"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="37"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="35"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="33"/>
-      <c r="D182" s="34"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="37"/>
     </row>
     <row r="183" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B183" s="16">
@@ -6984,16 +6988,16 @@
       </c>
     </row>
     <row r="188" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="35"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="37"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="35"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C189" s="33"/>
-      <c r="D189" s="34"/>
+      <c r="C189" s="36"/>
+      <c r="D189" s="37"/>
     </row>
     <row r="190" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B190" s="16">
@@ -7073,16 +7077,16 @@
       </c>
     </row>
     <row r="197" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="35"/>
-      <c r="C197" s="36"/>
-      <c r="D197" s="37"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="35"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="33"/>
-      <c r="D198" s="34"/>
+      <c r="C198" s="36"/>
+      <c r="D198" s="37"/>
     </row>
     <row r="199" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B199" s="16">
@@ -7140,16 +7144,16 @@
       </c>
     </row>
     <row r="204" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="35"/>
-      <c r="C204" s="36"/>
-      <c r="D204" s="37"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="35"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="33"/>
-      <c r="D205" s="34"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="37"/>
     </row>
     <row r="206" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B206" s="16">
@@ -7207,16 +7211,16 @@
       </c>
     </row>
     <row r="211" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="35"/>
-      <c r="C211" s="36"/>
-      <c r="D211" s="37"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="35"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="33"/>
-      <c r="D212" s="34"/>
+      <c r="C212" s="36"/>
+      <c r="D212" s="37"/>
     </row>
     <row r="213" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B213" s="16">
@@ -7274,18 +7278,18 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="35"/>
-      <c r="C218" s="36"/>
-      <c r="D218" s="37"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="34"/>
+      <c r="D218" s="35"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="33" t="s">
+      <c r="C219" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="D219" s="34"/>
+      <c r="D219" s="37"/>
     </row>
     <row r="220" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B220" s="16">
@@ -7343,18 +7347,18 @@
       </c>
     </row>
     <row r="225" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="35"/>
-      <c r="C225" s="36"/>
-      <c r="D225" s="37"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="34"/>
+      <c r="D225" s="35"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C226" s="33" t="s">
+      <c r="C226" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="D226" s="34"/>
+      <c r="D226" s="37"/>
     </row>
     <row r="227" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B227" s="16">
@@ -7412,18 +7416,18 @@
       </c>
     </row>
     <row r="232" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="35"/>
-      <c r="C232" s="36"/>
-      <c r="D232" s="37"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="34"/>
+      <c r="D232" s="35"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="33" t="s">
+      <c r="C233" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="D233" s="34"/>
+      <c r="D233" s="37"/>
     </row>
     <row r="234" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B234" s="16">
@@ -7481,18 +7485,18 @@
       </c>
     </row>
     <row r="239" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="35"/>
-      <c r="C239" s="36"/>
-      <c r="D239" s="37"/>
+      <c r="B239" s="33"/>
+      <c r="C239" s="34"/>
+      <c r="D239" s="35"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="33" t="s">
+      <c r="C240" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="D240" s="34"/>
+      <c r="D240" s="37"/>
     </row>
     <row r="241" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B241" s="16">
@@ -7547,18 +7551,18 @@
       </c>
     </row>
     <row r="246" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="35"/>
-      <c r="C246" s="36"/>
-      <c r="D246" s="37"/>
+      <c r="B246" s="33"/>
+      <c r="C246" s="34"/>
+      <c r="D246" s="35"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="33" t="s">
+      <c r="C247" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="D247" s="34"/>
+      <c r="D247" s="37"/>
     </row>
     <row r="248" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B248" s="16">
@@ -7616,18 +7620,18 @@
       </c>
     </row>
     <row r="253" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="35"/>
-      <c r="C253" s="36"/>
-      <c r="D253" s="37"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="34"/>
+      <c r="D253" s="35"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="33" t="s">
+      <c r="C254" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D254" s="34"/>
+      <c r="D254" s="37"/>
     </row>
     <row r="255" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B255" s="16">
@@ -7682,18 +7686,18 @@
       </c>
     </row>
     <row r="260" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="35"/>
-      <c r="C260" s="36"/>
-      <c r="D260" s="37"/>
+      <c r="B260" s="33"/>
+      <c r="C260" s="34"/>
+      <c r="D260" s="35"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C261" s="33" t="s">
+      <c r="C261" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="D261" s="34"/>
+      <c r="D261" s="37"/>
     </row>
     <row r="262" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B262" s="16">
@@ -7751,18 +7755,18 @@
       </c>
     </row>
     <row r="267" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="35"/>
-      <c r="C267" s="36"/>
-      <c r="D267" s="37"/>
+      <c r="B267" s="33"/>
+      <c r="C267" s="34"/>
+      <c r="D267" s="35"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="33" t="s">
+      <c r="C268" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="D268" s="34"/>
+      <c r="D268" s="37"/>
     </row>
     <row r="269" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B269" s="16">
@@ -7817,18 +7821,18 @@
       </c>
     </row>
     <row r="274" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="35"/>
-      <c r="C274" s="36"/>
-      <c r="D274" s="37"/>
+      <c r="B274" s="33"/>
+      <c r="C274" s="34"/>
+      <c r="D274" s="35"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="33" t="s">
+      <c r="C275" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="D275" s="34"/>
+      <c r="D275" s="37"/>
     </row>
     <row r="276" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B276" s="16">
@@ -7897,18 +7901,18 @@
       </c>
     </row>
     <row r="282" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="35"/>
-      <c r="C282" s="36"/>
-      <c r="D282" s="37"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="34"/>
+      <c r="D282" s="35"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="33" t="s">
+      <c r="C283" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="D283" s="34"/>
+      <c r="D283" s="37"/>
     </row>
     <row r="284" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B284" s="16">
@@ -7944,18 +7948,18 @@
       </c>
     </row>
     <row r="287" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="35"/>
-      <c r="C287" s="36"/>
-      <c r="D287" s="37"/>
+      <c r="B287" s="33"/>
+      <c r="C287" s="34"/>
+      <c r="D287" s="35"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="33" t="s">
+      <c r="C288" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="D288" s="34"/>
+      <c r="D288" s="37"/>
     </row>
     <row r="289" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B289" s="16">
@@ -8013,18 +8017,18 @@
       </c>
     </row>
     <row r="294" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="35"/>
-      <c r="C294" s="36"/>
-      <c r="D294" s="37"/>
+      <c r="B294" s="33"/>
+      <c r="C294" s="34"/>
+      <c r="D294" s="35"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C295" s="33" t="s">
+      <c r="C295" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="D295" s="34"/>
+      <c r="D295" s="37"/>
     </row>
     <row r="296" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B296" s="16">
@@ -8082,18 +8086,18 @@
       </c>
     </row>
     <row r="301" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="35"/>
-      <c r="C301" s="36"/>
-      <c r="D301" s="37"/>
+      <c r="B301" s="33"/>
+      <c r="C301" s="34"/>
+      <c r="D301" s="35"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C302" s="33" t="s">
+      <c r="C302" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="D302" s="34"/>
+      <c r="D302" s="37"/>
     </row>
     <row r="303" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B303" s="16">
@@ -8148,18 +8152,18 @@
       </c>
     </row>
     <row r="308" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="35"/>
-      <c r="C308" s="36"/>
-      <c r="D308" s="37"/>
+      <c r="B308" s="33"/>
+      <c r="C308" s="34"/>
+      <c r="D308" s="35"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="33" t="s">
+      <c r="C309" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="D309" s="34"/>
+      <c r="D309" s="37"/>
     </row>
     <row r="310" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B310" s="16">
@@ -8217,18 +8221,18 @@
       </c>
     </row>
     <row r="315" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="35"/>
-      <c r="C315" s="36"/>
-      <c r="D315" s="37"/>
+      <c r="B315" s="33"/>
+      <c r="C315" s="34"/>
+      <c r="D315" s="35"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C316" s="33" t="s">
+      <c r="C316" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="34"/>
+      <c r="D316" s="37"/>
     </row>
     <row r="317" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B317" s="16">
@@ -8286,18 +8290,18 @@
       </c>
     </row>
     <row r="322" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="35"/>
-      <c r="C322" s="36"/>
-      <c r="D322" s="37"/>
+      <c r="B322" s="33"/>
+      <c r="C322" s="34"/>
+      <c r="D322" s="35"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="33" t="s">
+      <c r="C323" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="D323" s="34"/>
+      <c r="D323" s="37"/>
     </row>
     <row r="324" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B324" s="16">
@@ -8355,18 +8359,18 @@
       </c>
     </row>
     <row r="329" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="35"/>
-      <c r="C329" s="36"/>
-      <c r="D329" s="37"/>
+      <c r="B329" s="33"/>
+      <c r="C329" s="34"/>
+      <c r="D329" s="35"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C330" s="33" t="s">
+      <c r="C330" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="D330" s="34"/>
+      <c r="D330" s="37"/>
     </row>
     <row r="331" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B331" s="16">
@@ -8402,18 +8406,18 @@
       </c>
     </row>
     <row r="334" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="35"/>
-      <c r="C334" s="36"/>
-      <c r="D334" s="37"/>
+      <c r="B334" s="33"/>
+      <c r="C334" s="34"/>
+      <c r="D334" s="35"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C335" s="33" t="s">
+      <c r="C335" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="D335" s="34"/>
+      <c r="D335" s="37"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="16">
@@ -8479,18 +8483,18 @@
       </c>
     </row>
     <row r="342" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="35"/>
-      <c r="C342" s="36"/>
-      <c r="D342" s="37"/>
+      <c r="B342" s="33"/>
+      <c r="C342" s="34"/>
+      <c r="D342" s="35"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="33" t="s">
+      <c r="C343" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="D343" s="34"/>
+      <c r="D343" s="37"/>
     </row>
     <row r="344" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B344" s="16">
@@ -8548,18 +8552,18 @@
       </c>
     </row>
     <row r="349" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="35"/>
-      <c r="C349" s="36"/>
-      <c r="D349" s="37"/>
+      <c r="B349" s="33"/>
+      <c r="C349" s="34"/>
+      <c r="D349" s="35"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C350" s="33" t="s">
+      <c r="C350" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="D350" s="34"/>
+      <c r="D350" s="37"/>
     </row>
     <row r="351" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B351" s="16">
@@ -8617,18 +8621,18 @@
       </c>
     </row>
     <row r="356" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="35"/>
-      <c r="C356" s="36"/>
-      <c r="D356" s="37"/>
+      <c r="B356" s="33"/>
+      <c r="C356" s="34"/>
+      <c r="D356" s="35"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="33" t="s">
+      <c r="C357" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="D357" s="34"/>
+      <c r="D357" s="37"/>
     </row>
     <row r="358" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B358" s="16">
@@ -8686,18 +8690,18 @@
       </c>
     </row>
     <row r="363" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="35"/>
-      <c r="C363" s="36"/>
-      <c r="D363" s="37"/>
+      <c r="B363" s="33"/>
+      <c r="C363" s="34"/>
+      <c r="D363" s="35"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C364" s="33" t="s">
+      <c r="C364" s="36" t="s">
         <v>532</v>
       </c>
-      <c r="D364" s="34"/>
+      <c r="D364" s="37"/>
     </row>
     <row r="365" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B365" s="16">
@@ -8755,18 +8759,18 @@
       </c>
     </row>
     <row r="370" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="35"/>
-      <c r="C370" s="36"/>
-      <c r="D370" s="37"/>
+      <c r="B370" s="33"/>
+      <c r="C370" s="34"/>
+      <c r="D370" s="35"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C371" s="33" t="s">
+      <c r="C371" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="D371" s="34"/>
+      <c r="D371" s="37"/>
     </row>
     <row r="372" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B372" s="16">
@@ -8824,18 +8828,18 @@
       </c>
     </row>
     <row r="377" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="35"/>
-      <c r="C377" s="36"/>
-      <c r="D377" s="37"/>
+      <c r="B377" s="33"/>
+      <c r="C377" s="34"/>
+      <c r="D377" s="35"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="33" t="s">
+      <c r="C378" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="D378" s="34"/>
+      <c r="D378" s="37"/>
     </row>
     <row r="379" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
@@ -8893,18 +8897,18 @@
       </c>
     </row>
     <row r="384" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="35"/>
-      <c r="C384" s="36"/>
-      <c r="D384" s="37"/>
+      <c r="B384" s="33"/>
+      <c r="C384" s="34"/>
+      <c r="D384" s="35"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C385" s="33" t="s">
+      <c r="C385" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="D385" s="34"/>
+      <c r="D385" s="37"/>
     </row>
     <row r="386" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B386" s="16">
@@ -8962,18 +8966,18 @@
       </c>
     </row>
     <row r="391" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="35"/>
-      <c r="C391" s="36"/>
-      <c r="D391" s="37"/>
+      <c r="B391" s="33"/>
+      <c r="C391" s="34"/>
+      <c r="D391" s="35"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="33" t="s">
+      <c r="C392" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="D392" s="34"/>
+      <c r="D392" s="37"/>
     </row>
     <row r="393" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
@@ -9031,18 +9035,18 @@
       </c>
     </row>
     <row r="398" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="35"/>
-      <c r="C398" s="36"/>
-      <c r="D398" s="37"/>
+      <c r="B398" s="33"/>
+      <c r="C398" s="34"/>
+      <c r="D398" s="35"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C399" s="33" t="s">
+      <c r="C399" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="D399" s="34"/>
+      <c r="D399" s="37"/>
     </row>
     <row r="400" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
@@ -9100,18 +9104,18 @@
       </c>
     </row>
     <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="35"/>
-      <c r="C405" s="36"/>
-      <c r="D405" s="37"/>
+      <c r="B405" s="33"/>
+      <c r="C405" s="34"/>
+      <c r="D405" s="35"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="38" t="s">
+      <c r="C406" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="39"/>
+      <c r="D406" s="48"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9169,18 +9173,18 @@
       </c>
     </row>
     <row r="412" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="35"/>
-      <c r="C412" s="36"/>
-      <c r="D412" s="37"/>
+      <c r="B412" s="33"/>
+      <c r="C412" s="34"/>
+      <c r="D412" s="35"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C413" s="33" t="s">
+      <c r="C413" s="36" t="s">
         <v>595</v>
       </c>
-      <c r="D413" s="34"/>
+      <c r="D413" s="37"/>
     </row>
     <row r="414" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B414" s="16">
@@ -9238,18 +9242,18 @@
       </c>
     </row>
     <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="35"/>
-      <c r="C419" s="36"/>
-      <c r="D419" s="37"/>
+      <c r="B419" s="33"/>
+      <c r="C419" s="34"/>
+      <c r="D419" s="35"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="33" t="s">
+      <c r="C420" s="36" t="s">
         <v>604</v>
       </c>
-      <c r="D420" s="34"/>
+      <c r="D420" s="37"/>
     </row>
     <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
@@ -9307,18 +9311,18 @@
       </c>
     </row>
     <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="35"/>
-      <c r="C426" s="36"/>
-      <c r="D426" s="37"/>
+      <c r="B426" s="33"/>
+      <c r="C426" s="34"/>
+      <c r="D426" s="35"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C427" s="33" t="s">
+      <c r="C427" s="36" t="s">
         <v>615</v>
       </c>
-      <c r="D427" s="34"/>
+      <c r="D427" s="37"/>
     </row>
     <row r="428" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
@@ -9365,18 +9369,18 @@
       </c>
     </row>
     <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="35"/>
-      <c r="C432" s="36"/>
-      <c r="D432" s="37"/>
+      <c r="B432" s="33"/>
+      <c r="C432" s="34"/>
+      <c r="D432" s="35"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C433" s="33" t="s">
+      <c r="C433" s="36" t="s">
         <v>628</v>
       </c>
-      <c r="D433" s="34"/>
+      <c r="D433" s="37"/>
     </row>
     <row r="434" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
@@ -9456,18 +9460,18 @@
       </c>
     </row>
     <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="35"/>
-      <c r="C441" s="36"/>
-      <c r="D441" s="37"/>
+      <c r="B441" s="33"/>
+      <c r="C441" s="34"/>
+      <c r="D441" s="35"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C442" s="33" t="s">
+      <c r="C442" s="36" t="s">
         <v>638</v>
       </c>
-      <c r="D442" s="34"/>
+      <c r="D442" s="37"/>
     </row>
     <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B443" s="16">
@@ -9525,18 +9529,18 @@
       </c>
     </row>
     <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="35"/>
-      <c r="C448" s="36"/>
-      <c r="D448" s="37"/>
+      <c r="B448" s="33"/>
+      <c r="C448" s="34"/>
+      <c r="D448" s="35"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="33" t="s">
+      <c r="C449" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="D449" s="34"/>
+      <c r="D449" s="37"/>
     </row>
     <row r="450" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B450" s="16">
@@ -9594,18 +9598,18 @@
       </c>
     </row>
     <row r="455" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="35"/>
-      <c r="C455" s="36"/>
-      <c r="D455" s="37"/>
+      <c r="B455" s="33"/>
+      <c r="C455" s="34"/>
+      <c r="D455" s="35"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C456" s="33" t="s">
+      <c r="C456" s="36" t="s">
         <v>667</v>
       </c>
-      <c r="D456" s="34"/>
+      <c r="D456" s="37"/>
     </row>
     <row r="457" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B457" s="16">
@@ -9663,18 +9667,18 @@
       </c>
     </row>
     <row r="462" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="35"/>
-      <c r="C462" s="36"/>
-      <c r="D462" s="37"/>
+      <c r="B462" s="33"/>
+      <c r="C462" s="34"/>
+      <c r="D462" s="35"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C463" s="33" t="s">
+      <c r="C463" s="36" t="s">
         <v>669</v>
       </c>
-      <c r="D463" s="34"/>
+      <c r="D463" s="37"/>
     </row>
     <row r="464" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B464" s="16">
@@ -9732,18 +9736,18 @@
       </c>
     </row>
     <row r="469" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="35"/>
-      <c r="C469" s="36"/>
-      <c r="D469" s="37"/>
+      <c r="B469" s="33"/>
+      <c r="C469" s="34"/>
+      <c r="D469" s="35"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C470" s="33" t="s">
+      <c r="C470" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="D470" s="34"/>
+      <c r="D470" s="37"/>
     </row>
     <row r="471" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B471" s="16">
@@ -9801,18 +9805,18 @@
       </c>
     </row>
     <row r="476" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="35"/>
-      <c r="C476" s="36"/>
-      <c r="D476" s="37"/>
+      <c r="B476" s="33"/>
+      <c r="C476" s="34"/>
+      <c r="D476" s="35"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="33" t="s">
+      <c r="C477" s="36" t="s">
         <v>699</v>
       </c>
-      <c r="D477" s="34"/>
+      <c r="D477" s="37"/>
     </row>
     <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B478" s="16">
@@ -9870,18 +9874,18 @@
       </c>
     </row>
     <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="35"/>
-      <c r="C483" s="36"/>
-      <c r="D483" s="37"/>
+      <c r="B483" s="33"/>
+      <c r="C483" s="34"/>
+      <c r="D483" s="35"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C484" s="33" t="s">
+      <c r="C484" s="36" t="s">
         <v>700</v>
       </c>
-      <c r="D484" s="34"/>
+      <c r="D484" s="37"/>
     </row>
     <row r="485" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B485" s="16">
@@ -9895,6 +9899,9 @@
       <c r="B486" s="16">
         <v>45258</v>
       </c>
+      <c r="C486" s="7" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="487" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B487" s="16">
@@ -9912,16 +9919,16 @@
       </c>
     </row>
     <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="35"/>
-      <c r="C490" s="36"/>
-      <c r="D490" s="37"/>
+      <c r="B490" s="33"/>
+      <c r="C490" s="34"/>
+      <c r="D490" s="35"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C491" s="33"/>
-      <c r="D491" s="34"/>
+      <c r="C491" s="36"/>
+      <c r="D491" s="37"/>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B492" s="16">
@@ -9930,16 +9937,112 @@
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
     <mergeCell ref="B455:D455"/>
     <mergeCell ref="C456:D456"/>
     <mergeCell ref="B363:D363"/>
@@ -9964,112 +10067,16 @@
     <mergeCell ref="C427:D427"/>
     <mergeCell ref="B391:D391"/>
     <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work_tool/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA9366E-535C-45DF-80B6-A9C52992725C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB02C06-D949-40F3-AA4E-498BF514B505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4236,7 +4236,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实现基于财务共享4.0的影像系统接口公共组件。</t>
+    <t>整理公共组件。
+实现基于财务共享4.0的影像系统接口公共组件。
+配置向日葵远程电脑环境，准备开发EBS项目预算填报场景后续操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4832,6 +4834,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4841,10 +4849,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4873,12 +4881,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5162,8 +5164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="C486" sqref="C486"/>
+    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="C482" sqref="C482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5213,19 +5215,19 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -5287,19 +5289,19 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
@@ -5358,18 +5360,18 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
@@ -5427,18 +5429,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
@@ -5496,18 +5498,18 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="37"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
@@ -5565,18 +5567,18 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="37"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
@@ -5634,18 +5636,18 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="37"/>
+      <c r="D49" s="34"/>
     </row>
     <row r="50" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
@@ -5703,18 +5705,18 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="D56" s="34"/>
     </row>
     <row r="57" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
@@ -5772,18 +5774,18 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="37"/>
+      <c r="D63" s="34"/>
     </row>
     <row r="64" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
@@ -5830,18 +5832,18 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="33"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="37"/>
+      <c r="D69" s="34"/>
     </row>
     <row r="70" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
@@ -5899,18 +5901,18 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="37"/>
+      <c r="D76" s="34"/>
     </row>
     <row r="77" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
@@ -5965,18 +5967,18 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="37"/>
+      <c r="D83" s="34"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="16">
@@ -6050,18 +6052,18 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="33"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="37"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="37"/>
+      <c r="D92" s="34"/>
     </row>
     <row r="93" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B93" s="16">
@@ -6119,18 +6121,18 @@
       </c>
     </row>
     <row r="98" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="33"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="37"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="37"/>
+      <c r="D99" s="34"/>
     </row>
     <row r="100" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B100" s="16">
@@ -6188,18 +6190,18 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="33"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="37"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="37"/>
+      <c r="D106" s="34"/>
     </row>
     <row r="107" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B107" s="16">
@@ -6257,18 +6259,18 @@
       </c>
     </row>
     <row r="112" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="33"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="35"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="37"/>
+      <c r="D113" s="34"/>
     </row>
     <row r="114" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B114" s="16">
@@ -6326,18 +6328,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="33"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="35"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="37"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="36" t="s">
+      <c r="C120" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="37"/>
+      <c r="D120" s="34"/>
     </row>
     <row r="121" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B121" s="16">
@@ -6395,18 +6397,18 @@
       </c>
     </row>
     <row r="126" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="33"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="35"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="37"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="37"/>
+      <c r="D127" s="34"/>
     </row>
     <row r="128" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B128" s="16">
@@ -6464,18 +6466,18 @@
       </c>
     </row>
     <row r="133" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="33"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="37"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C134" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D134" s="37"/>
+      <c r="D134" s="34"/>
     </row>
     <row r="135" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B135" s="16">
@@ -6533,16 +6535,16 @@
       </c>
     </row>
     <row r="140" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="33"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="35"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="37"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="34"/>
     </row>
     <row r="142" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B142" s="16">
@@ -6600,16 +6602,16 @@
       </c>
     </row>
     <row r="147" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="33"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="35"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="37"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="36"/>
-      <c r="D148" s="37"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="34"/>
     </row>
     <row r="149" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B149" s="16">
@@ -6667,16 +6669,16 @@
       </c>
     </row>
     <row r="154" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="33"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="35"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="37"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="36"/>
-      <c r="D155" s="37"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="34"/>
     </row>
     <row r="156" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B156" s="16">
@@ -6734,16 +6736,16 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="33"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="35"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="37"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="36"/>
-      <c r="D162" s="37"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="34"/>
     </row>
     <row r="163" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B163" s="16">
@@ -6801,16 +6803,16 @@
       </c>
     </row>
     <row r="168" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="33"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="35"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="37"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="36"/>
-      <c r="D169" s="37"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="34"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="16">
@@ -6857,16 +6859,16 @@
       </c>
     </row>
     <row r="174" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="33"/>
-      <c r="C174" s="34"/>
-      <c r="D174" s="35"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="37"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="36"/>
-      <c r="D175" s="37"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="34"/>
     </row>
     <row r="176" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B176" s="16">
@@ -6924,16 +6926,16 @@
       </c>
     </row>
     <row r="181" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="33"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="35"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="37"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="36"/>
-      <c r="D182" s="37"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="34"/>
     </row>
     <row r="183" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B183" s="16">
@@ -6988,16 +6990,16 @@
       </c>
     </row>
     <row r="188" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="33"/>
-      <c r="C188" s="34"/>
-      <c r="D188" s="35"/>
+      <c r="B188" s="35"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="37"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C189" s="36"/>
-      <c r="D189" s="37"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="34"/>
     </row>
     <row r="190" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B190" s="16">
@@ -7077,16 +7079,16 @@
       </c>
     </row>
     <row r="197" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="33"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="35"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="37"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="36"/>
-      <c r="D198" s="37"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="34"/>
     </row>
     <row r="199" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B199" s="16">
@@ -7144,16 +7146,16 @@
       </c>
     </row>
     <row r="204" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="33"/>
-      <c r="C204" s="34"/>
-      <c r="D204" s="35"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="37"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="36"/>
-      <c r="D205" s="37"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="34"/>
     </row>
     <row r="206" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B206" s="16">
@@ -7211,16 +7213,16 @@
       </c>
     </row>
     <row r="211" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="33"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="35"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="37"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="36"/>
-      <c r="D212" s="37"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="34"/>
     </row>
     <row r="213" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B213" s="16">
@@ -7278,18 +7280,18 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="33"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="35"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="37"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="36" t="s">
+      <c r="C219" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="D219" s="37"/>
+      <c r="D219" s="34"/>
     </row>
     <row r="220" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B220" s="16">
@@ -7347,18 +7349,18 @@
       </c>
     </row>
     <row r="225" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="33"/>
-      <c r="C225" s="34"/>
-      <c r="D225" s="35"/>
+      <c r="B225" s="35"/>
+      <c r="C225" s="36"/>
+      <c r="D225" s="37"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C226" s="36" t="s">
+      <c r="C226" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="D226" s="37"/>
+      <c r="D226" s="34"/>
     </row>
     <row r="227" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B227" s="16">
@@ -7416,18 +7418,18 @@
       </c>
     </row>
     <row r="232" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="33"/>
-      <c r="C232" s="34"/>
-      <c r="D232" s="35"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="36"/>
+      <c r="D232" s="37"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="36" t="s">
+      <c r="C233" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="D233" s="37"/>
+      <c r="D233" s="34"/>
     </row>
     <row r="234" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B234" s="16">
@@ -7485,18 +7487,18 @@
       </c>
     </row>
     <row r="239" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="33"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="35"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="36"/>
+      <c r="D239" s="37"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="36" t="s">
+      <c r="C240" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="D240" s="37"/>
+      <c r="D240" s="34"/>
     </row>
     <row r="241" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B241" s="16">
@@ -7551,18 +7553,18 @@
       </c>
     </row>
     <row r="246" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="33"/>
-      <c r="C246" s="34"/>
-      <c r="D246" s="35"/>
+      <c r="B246" s="35"/>
+      <c r="C246" s="36"/>
+      <c r="D246" s="37"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="36" t="s">
+      <c r="C247" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="D247" s="37"/>
+      <c r="D247" s="34"/>
     </row>
     <row r="248" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B248" s="16">
@@ -7620,18 +7622,18 @@
       </c>
     </row>
     <row r="253" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="33"/>
-      <c r="C253" s="34"/>
-      <c r="D253" s="35"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="36"/>
+      <c r="D253" s="37"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="36" t="s">
+      <c r="C254" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="D254" s="37"/>
+      <c r="D254" s="34"/>
     </row>
     <row r="255" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B255" s="16">
@@ -7686,18 +7688,18 @@
       </c>
     </row>
     <row r="260" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="33"/>
-      <c r="C260" s="34"/>
-      <c r="D260" s="35"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="36"/>
+      <c r="D260" s="37"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C261" s="36" t="s">
+      <c r="C261" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="D261" s="37"/>
+      <c r="D261" s="34"/>
     </row>
     <row r="262" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B262" s="16">
@@ -7755,18 +7757,18 @@
       </c>
     </row>
     <row r="267" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="33"/>
-      <c r="C267" s="34"/>
-      <c r="D267" s="35"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="36"/>
+      <c r="D267" s="37"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="36" t="s">
+      <c r="C268" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="D268" s="37"/>
+      <c r="D268" s="34"/>
     </row>
     <row r="269" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B269" s="16">
@@ -7821,18 +7823,18 @@
       </c>
     </row>
     <row r="274" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="33"/>
-      <c r="C274" s="34"/>
-      <c r="D274" s="35"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="36"/>
+      <c r="D274" s="37"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="36" t="s">
+      <c r="C275" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="D275" s="37"/>
+      <c r="D275" s="34"/>
     </row>
     <row r="276" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B276" s="16">
@@ -7901,18 +7903,18 @@
       </c>
     </row>
     <row r="282" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="33"/>
-      <c r="C282" s="34"/>
-      <c r="D282" s="35"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="36"/>
+      <c r="D282" s="37"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="36" t="s">
+      <c r="C283" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="D283" s="37"/>
+      <c r="D283" s="34"/>
     </row>
     <row r="284" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B284" s="16">
@@ -7948,18 +7950,18 @@
       </c>
     </row>
     <row r="287" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="33"/>
-      <c r="C287" s="34"/>
-      <c r="D287" s="35"/>
+      <c r="B287" s="35"/>
+      <c r="C287" s="36"/>
+      <c r="D287" s="37"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="36" t="s">
+      <c r="C288" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="D288" s="37"/>
+      <c r="D288" s="34"/>
     </row>
     <row r="289" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B289" s="16">
@@ -8017,18 +8019,18 @@
       </c>
     </row>
     <row r="294" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="33"/>
-      <c r="C294" s="34"/>
-      <c r="D294" s="35"/>
+      <c r="B294" s="35"/>
+      <c r="C294" s="36"/>
+      <c r="D294" s="37"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C295" s="36" t="s">
+      <c r="C295" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="D295" s="37"/>
+      <c r="D295" s="34"/>
     </row>
     <row r="296" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B296" s="16">
@@ -8086,18 +8088,18 @@
       </c>
     </row>
     <row r="301" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="33"/>
-      <c r="C301" s="34"/>
-      <c r="D301" s="35"/>
+      <c r="B301" s="35"/>
+      <c r="C301" s="36"/>
+      <c r="D301" s="37"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C302" s="36" t="s">
+      <c r="C302" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="D302" s="37"/>
+      <c r="D302" s="34"/>
     </row>
     <row r="303" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B303" s="16">
@@ -8152,18 +8154,18 @@
       </c>
     </row>
     <row r="308" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="33"/>
-      <c r="C308" s="34"/>
-      <c r="D308" s="35"/>
+      <c r="B308" s="35"/>
+      <c r="C308" s="36"/>
+      <c r="D308" s="37"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="36" t="s">
+      <c r="C309" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="D309" s="37"/>
+      <c r="D309" s="34"/>
     </row>
     <row r="310" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B310" s="16">
@@ -8221,18 +8223,18 @@
       </c>
     </row>
     <row r="315" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="33"/>
-      <c r="C315" s="34"/>
-      <c r="D315" s="35"/>
+      <c r="B315" s="35"/>
+      <c r="C315" s="36"/>
+      <c r="D315" s="37"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C316" s="36" t="s">
+      <c r="C316" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="37"/>
+      <c r="D316" s="34"/>
     </row>
     <row r="317" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B317" s="16">
@@ -8290,18 +8292,18 @@
       </c>
     </row>
     <row r="322" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="33"/>
-      <c r="C322" s="34"/>
-      <c r="D322" s="35"/>
+      <c r="B322" s="35"/>
+      <c r="C322" s="36"/>
+      <c r="D322" s="37"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="36" t="s">
+      <c r="C323" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="D323" s="37"/>
+      <c r="D323" s="34"/>
     </row>
     <row r="324" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B324" s="16">
@@ -8359,18 +8361,18 @@
       </c>
     </row>
     <row r="329" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="33"/>
-      <c r="C329" s="34"/>
-      <c r="D329" s="35"/>
+      <c r="B329" s="35"/>
+      <c r="C329" s="36"/>
+      <c r="D329" s="37"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C330" s="36" t="s">
+      <c r="C330" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="D330" s="37"/>
+      <c r="D330" s="34"/>
     </row>
     <row r="331" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B331" s="16">
@@ -8406,18 +8408,18 @@
       </c>
     </row>
     <row r="334" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="33"/>
-      <c r="C334" s="34"/>
-      <c r="D334" s="35"/>
+      <c r="B334" s="35"/>
+      <c r="C334" s="36"/>
+      <c r="D334" s="37"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C335" s="36" t="s">
+      <c r="C335" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D335" s="37"/>
+      <c r="D335" s="34"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="16">
@@ -8483,18 +8485,18 @@
       </c>
     </row>
     <row r="342" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="33"/>
-      <c r="C342" s="34"/>
-      <c r="D342" s="35"/>
+      <c r="B342" s="35"/>
+      <c r="C342" s="36"/>
+      <c r="D342" s="37"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="36" t="s">
+      <c r="C343" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="D343" s="37"/>
+      <c r="D343" s="34"/>
     </row>
     <row r="344" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B344" s="16">
@@ -8552,18 +8554,18 @@
       </c>
     </row>
     <row r="349" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="33"/>
-      <c r="C349" s="34"/>
-      <c r="D349" s="35"/>
+      <c r="B349" s="35"/>
+      <c r="C349" s="36"/>
+      <c r="D349" s="37"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C350" s="36" t="s">
+      <c r="C350" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="D350" s="37"/>
+      <c r="D350" s="34"/>
     </row>
     <row r="351" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B351" s="16">
@@ -8621,18 +8623,18 @@
       </c>
     </row>
     <row r="356" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="33"/>
-      <c r="C356" s="34"/>
-      <c r="D356" s="35"/>
+      <c r="B356" s="35"/>
+      <c r="C356" s="36"/>
+      <c r="D356" s="37"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="36" t="s">
+      <c r="C357" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="D357" s="37"/>
+      <c r="D357" s="34"/>
     </row>
     <row r="358" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B358" s="16">
@@ -8690,18 +8692,18 @@
       </c>
     </row>
     <row r="363" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="33"/>
-      <c r="C363" s="34"/>
-      <c r="D363" s="35"/>
+      <c r="B363" s="35"/>
+      <c r="C363" s="36"/>
+      <c r="D363" s="37"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C364" s="36" t="s">
+      <c r="C364" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="D364" s="37"/>
+      <c r="D364" s="34"/>
     </row>
     <row r="365" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B365" s="16">
@@ -8759,18 +8761,18 @@
       </c>
     </row>
     <row r="370" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="33"/>
-      <c r="C370" s="34"/>
-      <c r="D370" s="35"/>
+      <c r="B370" s="35"/>
+      <c r="C370" s="36"/>
+      <c r="D370" s="37"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C371" s="36" t="s">
+      <c r="C371" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="D371" s="37"/>
+      <c r="D371" s="34"/>
     </row>
     <row r="372" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B372" s="16">
@@ -8828,18 +8830,18 @@
       </c>
     </row>
     <row r="377" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="33"/>
-      <c r="C377" s="34"/>
-      <c r="D377" s="35"/>
+      <c r="B377" s="35"/>
+      <c r="C377" s="36"/>
+      <c r="D377" s="37"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="36" t="s">
+      <c r="C378" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="D378" s="37"/>
+      <c r="D378" s="34"/>
     </row>
     <row r="379" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
@@ -8897,18 +8899,18 @@
       </c>
     </row>
     <row r="384" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="33"/>
-      <c r="C384" s="34"/>
-      <c r="D384" s="35"/>
+      <c r="B384" s="35"/>
+      <c r="C384" s="36"/>
+      <c r="D384" s="37"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C385" s="36" t="s">
+      <c r="C385" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="D385" s="37"/>
+      <c r="D385" s="34"/>
     </row>
     <row r="386" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B386" s="16">
@@ -8966,18 +8968,18 @@
       </c>
     </row>
     <row r="391" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="33"/>
-      <c r="C391" s="34"/>
-      <c r="D391" s="35"/>
+      <c r="B391" s="35"/>
+      <c r="C391" s="36"/>
+      <c r="D391" s="37"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="36" t="s">
+      <c r="C392" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="D392" s="37"/>
+      <c r="D392" s="34"/>
     </row>
     <row r="393" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
@@ -9035,18 +9037,18 @@
       </c>
     </row>
     <row r="398" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="33"/>
-      <c r="C398" s="34"/>
-      <c r="D398" s="35"/>
+      <c r="B398" s="35"/>
+      <c r="C398" s="36"/>
+      <c r="D398" s="37"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C399" s="36" t="s">
+      <c r="C399" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="D399" s="37"/>
+      <c r="D399" s="34"/>
     </row>
     <row r="400" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
@@ -9104,18 +9106,18 @@
       </c>
     </row>
     <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="33"/>
-      <c r="C405" s="34"/>
-      <c r="D405" s="35"/>
+      <c r="B405" s="35"/>
+      <c r="C405" s="36"/>
+      <c r="D405" s="37"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="47" t="s">
+      <c r="C406" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="48"/>
+      <c r="D406" s="39"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9173,18 +9175,18 @@
       </c>
     </row>
     <row r="412" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="33"/>
-      <c r="C412" s="34"/>
-      <c r="D412" s="35"/>
+      <c r="B412" s="35"/>
+      <c r="C412" s="36"/>
+      <c r="D412" s="37"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C413" s="36" t="s">
+      <c r="C413" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="D413" s="37"/>
+      <c r="D413" s="34"/>
     </row>
     <row r="414" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B414" s="16">
@@ -9242,18 +9244,18 @@
       </c>
     </row>
     <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="33"/>
-      <c r="C419" s="34"/>
-      <c r="D419" s="35"/>
+      <c r="B419" s="35"/>
+      <c r="C419" s="36"/>
+      <c r="D419" s="37"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="36" t="s">
+      <c r="C420" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="D420" s="37"/>
+      <c r="D420" s="34"/>
     </row>
     <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
@@ -9311,18 +9313,18 @@
       </c>
     </row>
     <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="33"/>
-      <c r="C426" s="34"/>
-      <c r="D426" s="35"/>
+      <c r="B426" s="35"/>
+      <c r="C426" s="36"/>
+      <c r="D426" s="37"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C427" s="36" t="s">
+      <c r="C427" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="D427" s="37"/>
+      <c r="D427" s="34"/>
     </row>
     <row r="428" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
@@ -9369,18 +9371,18 @@
       </c>
     </row>
     <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="33"/>
-      <c r="C432" s="34"/>
-      <c r="D432" s="35"/>
+      <c r="B432" s="35"/>
+      <c r="C432" s="36"/>
+      <c r="D432" s="37"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C433" s="36" t="s">
+      <c r="C433" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="D433" s="37"/>
+      <c r="D433" s="34"/>
     </row>
     <row r="434" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
@@ -9460,18 +9462,18 @@
       </c>
     </row>
     <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="33"/>
-      <c r="C441" s="34"/>
-      <c r="D441" s="35"/>
+      <c r="B441" s="35"/>
+      <c r="C441" s="36"/>
+      <c r="D441" s="37"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C442" s="36" t="s">
+      <c r="C442" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="D442" s="37"/>
+      <c r="D442" s="34"/>
     </row>
     <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B443" s="16">
@@ -9529,18 +9531,18 @@
       </c>
     </row>
     <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="33"/>
-      <c r="C448" s="34"/>
-      <c r="D448" s="35"/>
+      <c r="B448" s="35"/>
+      <c r="C448" s="36"/>
+      <c r="D448" s="37"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="36" t="s">
+      <c r="C449" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="D449" s="37"/>
+      <c r="D449" s="34"/>
     </row>
     <row r="450" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B450" s="16">
@@ -9598,18 +9600,18 @@
       </c>
     </row>
     <row r="455" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="33"/>
-      <c r="C455" s="34"/>
-      <c r="D455" s="35"/>
+      <c r="B455" s="35"/>
+      <c r="C455" s="36"/>
+      <c r="D455" s="37"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C456" s="36" t="s">
+      <c r="C456" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="D456" s="37"/>
+      <c r="D456" s="34"/>
     </row>
     <row r="457" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B457" s="16">
@@ -9667,18 +9669,18 @@
       </c>
     </row>
     <row r="462" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="33"/>
-      <c r="C462" s="34"/>
-      <c r="D462" s="35"/>
+      <c r="B462" s="35"/>
+      <c r="C462" s="36"/>
+      <c r="D462" s="37"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C463" s="36" t="s">
+      <c r="C463" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="D463" s="37"/>
+      <c r="D463" s="34"/>
     </row>
     <row r="464" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B464" s="16">
@@ -9736,18 +9738,18 @@
       </c>
     </row>
     <row r="469" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="33"/>
-      <c r="C469" s="34"/>
-      <c r="D469" s="35"/>
+      <c r="B469" s="35"/>
+      <c r="C469" s="36"/>
+      <c r="D469" s="37"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C470" s="36" t="s">
+      <c r="C470" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="D470" s="37"/>
+      <c r="D470" s="34"/>
     </row>
     <row r="471" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B471" s="16">
@@ -9805,18 +9807,18 @@
       </c>
     </row>
     <row r="476" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="33"/>
-      <c r="C476" s="34"/>
-      <c r="D476" s="35"/>
+      <c r="B476" s="35"/>
+      <c r="C476" s="36"/>
+      <c r="D476" s="37"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="36" t="s">
+      <c r="C477" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="D477" s="37"/>
+      <c r="D477" s="34"/>
     </row>
     <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B478" s="16">
@@ -9874,18 +9876,18 @@
       </c>
     </row>
     <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="33"/>
-      <c r="C483" s="34"/>
-      <c r="D483" s="35"/>
+      <c r="B483" s="35"/>
+      <c r="C483" s="36"/>
+      <c r="D483" s="37"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C484" s="36" t="s">
+      <c r="C484" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="D484" s="37"/>
+      <c r="D484" s="34"/>
     </row>
     <row r="485" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B485" s="16">
@@ -9895,7 +9897,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B486" s="16">
         <v>45258</v>
       </c>
@@ -9919,16 +9921,16 @@
       </c>
     </row>
     <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="33"/>
-      <c r="C490" s="34"/>
-      <c r="D490" s="35"/>
+      <c r="B490" s="35"/>
+      <c r="C490" s="36"/>
+      <c r="D490" s="37"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C491" s="36"/>
-      <c r="D491" s="37"/>
+      <c r="C491" s="33"/>
+      <c r="D491" s="34"/>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B492" s="16">
@@ -9937,6 +9939,122 @@
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
     <mergeCell ref="C309:D309"/>
     <mergeCell ref="B301:D301"/>
     <mergeCell ref="B405:D405"/>
@@ -9961,122 +10079,6 @@
     <mergeCell ref="C283:D283"/>
     <mergeCell ref="B322:D322"/>
     <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
